--- a/Revisi.xlsx
+++ b/Revisi.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Form Login</t>
   </si>
@@ -27,36 +27,15 @@
     <t>Main Menu</t>
   </si>
   <si>
-    <t>Left Indent</t>
-  </si>
-  <si>
     <t>Sub Menu turun bawah (optional)</t>
   </si>
   <si>
-    <t>Data Collection - Product</t>
-  </si>
-  <si>
     <t>Order menu (Customer-Vendor-Warehouse-Product-Assets)</t>
   </si>
   <si>
-    <t>place &amp; date of Birth(dd/mm/yyyy)</t>
-  </si>
-  <si>
-    <t>Address cukup 2 baris</t>
-  </si>
-  <si>
-    <t>Semua ID keluarin</t>
-  </si>
-  <si>
-    <t>Adjustment dipisah</t>
-  </si>
-  <si>
     <t>Class price ganti jadi label+textbox</t>
   </si>
   <si>
-    <t>Semua tombl diperbesar</t>
-  </si>
-  <si>
     <t>search engine</t>
   </si>
   <si>
@@ -73,6 +52,54 @@
   </si>
   <si>
     <t>depresiasi &amp; cicilan asset</t>
+  </si>
+  <si>
+    <t>Tulisan pada menu: Align Text Left</t>
+  </si>
+  <si>
+    <t>Data Collection (MASTER)</t>
+  </si>
+  <si>
+    <t>Place dan date of birth saat ini dipisah jadi 2 baris.</t>
+  </si>
+  <si>
+    <t>Revisi: place &amp; date of Birth(dd/mm/yyyy)</t>
+  </si>
+  <si>
+    <t>Textbox Address kebesaran</t>
+  </si>
+  <si>
+    <t>Semua ID keluarin di datagrid</t>
+  </si>
+  <si>
+    <t>Revisi: Textbox Address cukup 2 baris</t>
+  </si>
+  <si>
+    <t>Semua tombol diperbesar</t>
+  </si>
+  <si>
+    <t>Search engine selain untuk mencari di textbox, juga untuk filter di datagrid. Jadi datagrid otomatis berkurang mengikuti textbox yang diinput</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Adjustment dipisah jadi satu form lagi</t>
+  </si>
+  <si>
+    <t>Alasannya karena kalo dijadiin satu form dengan master nanti takut terjadi kesalahan adjustment</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Tambah Textbox untuk depresiasi &amp; cicilan asset udah dibayar berapa</t>
+  </si>
+  <si>
+    <t>Note: bagian ini jangan dikerjain dulu, harusnya masuk ke inquiry/report ini</t>
+  </si>
+  <si>
+    <t>Form Tambahan</t>
   </si>
 </sst>
 </file>
@@ -114,9 +141,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,104 +440,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="128.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="D6" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="D7" t="s">
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Revisi.xlsx
+++ b/Revisi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Form Login</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Form Tambahan</t>
+  </si>
+  <si>
+    <t>Setelah save, data baru gak ke load di search engine</t>
   </si>
 </sst>
 </file>
@@ -440,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C29"/>
+  <dimension ref="B2:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -530,55 +533,63 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="2:3">
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" t="s">
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="2:3">
+      <c r="B28" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
         <v>10</v>
       </c>
     </row>
